--- a/equipment_cyg/product/semikron/semikron_manual.xlsx
+++ b/equipment_cyg/product/semikron/semikron_manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="465" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="secs指令" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="399">
   <si>
     <t>direction</t>
   </si>
@@ -548,6 +548,30 @@
   </si>
   <si>
     <t>要切换的点位名称</t>
+  </si>
+  <si>
+    <t>robot_id</t>
+  </si>
+  <si>
+    <t>camera_id</t>
+  </si>
+  <si>
+    <t>pick_rotation</t>
+  </si>
+  <si>
+    <t>put_rotation</t>
+  </si>
+  <si>
+    <t>dbc_link_tray_carrier_code_left</t>
+  </si>
+  <si>
+    <t>dbc_link_tray_carrier_code_right</t>
+  </si>
+  <si>
+    <t>dbc_link_tray_carrier_code_ng</t>
+  </si>
+  <si>
+    <t>out_rotation</t>
   </si>
   <si>
     <t>ec_id</t>
@@ -3281,13 +3305,13 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="53" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D1" s="56"/>
       <c r="E1" s="57"/>
@@ -3300,16 +3324,16 @@
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="61" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F2" s="62" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G2" s="63"/>
     </row>
@@ -3318,23 +3342,23 @@
         <v>4000</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D3" s="66"/>
       <c r="E3" s="67"/>
       <c r="F3" s="64"/>
       <c r="G3" s="67" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="64"/>
       <c r="B4" s="68"/>
       <c r="C4" s="66" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D4" s="66"/>
       <c r="E4" s="67"/>
@@ -3346,16 +3370,16 @@
         <v>4001</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D5" s="66"/>
       <c r="E5" s="67"/>
       <c r="F5" s="64"/>
       <c r="G5" s="67" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3363,23 +3387,23 @@
         <v>4002</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="67"/>
       <c r="F6" s="64"/>
       <c r="G6" s="69" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="71"/>
       <c r="B7" s="68"/>
       <c r="C7" s="66" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D7" s="66"/>
       <c r="E7" s="67"/>
@@ -3390,10 +3414,10 @@
       <c r="A8" s="71"/>
       <c r="B8" s="68"/>
       <c r="C8" s="66" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="64"/>
@@ -3403,7 +3427,7 @@
       <c r="A9" s="72"/>
       <c r="B9" s="73"/>
       <c r="C9" s="66" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
@@ -3415,13 +3439,13 @@
         <v>4003</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
@@ -3431,10 +3455,10 @@
       <c r="A11" s="72"/>
       <c r="B11" s="73"/>
       <c r="C11" s="66" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
@@ -3445,10 +3469,10 @@
         <v>4004</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66"/>
@@ -3459,7 +3483,7 @@
       <c r="A13" s="72"/>
       <c r="B13" s="73"/>
       <c r="C13" s="66" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D13" s="66"/>
       <c r="E13" s="66"/>
@@ -3471,10 +3495,10 @@
         <v>4005</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
@@ -3485,7 +3509,7 @@
       <c r="A15" s="72"/>
       <c r="B15" s="73"/>
       <c r="C15" s="66" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
@@ -3497,10 +3521,10 @@
         <v>4006</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
@@ -3511,7 +3535,7 @@
       <c r="A17" s="72"/>
       <c r="B17" s="73"/>
       <c r="C17" s="66" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
@@ -3523,10 +3547,10 @@
         <v>4007</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
@@ -3537,7 +3561,7 @@
       <c r="A19" s="72"/>
       <c r="B19" s="73"/>
       <c r="C19" s="66" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
@@ -3549,10 +3573,10 @@
         <v>4008</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="67"/>
@@ -3563,7 +3587,7 @@
       <c r="A21" s="72"/>
       <c r="B21" s="73"/>
       <c r="C21" s="66" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D21" s="66"/>
       <c r="E21" s="67"/>
@@ -3628,24 +3652,24 @@
   <sheetData>
     <row r="1" ht="21.75" spans="4:4">
       <c r="D1" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="4:9">
       <c r="D2" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>92</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>93</v>
@@ -3656,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -3665,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I3" s="40" t="s">
         <v>97</v>
@@ -3677,7 +3701,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="I4" s="41"/>
     </row>
@@ -3687,7 +3711,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -3697,7 +3721,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I6" s="41"/>
     </row>
@@ -3707,7 +3731,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -3716,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7">
         <v>2</v>
@@ -3725,13 +3749,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I8" s="40" t="s">
         <v>95</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>93</v>
@@ -3744,7 +3768,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I9" s="41"/>
       <c r="K9" s="14">
@@ -3754,7 +3778,7 @@
         <v>97</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="4:13">
@@ -3763,13 +3787,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="I10" s="41"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="45" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="4:13">
@@ -3778,13 +3802,13 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I11" s="42"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
       <c r="M11" s="45" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="4:13">
@@ -3792,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F12" s="12">
         <v>3</v>
@@ -3801,15 +3825,15 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="45" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="4:13">
@@ -3817,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
@@ -3826,15 +3850,15 @@
         <v>4</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="46" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="4:13">
@@ -3845,10 +3869,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K14" s="14">
         <v>2</v>
@@ -3857,7 +3881,7 @@
         <v>95</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="4:13">
@@ -3865,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F15" s="15">
         <v>5</v>
@@ -3874,15 +3898,15 @@
         <v>4</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="45" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="4:13">
@@ -3893,15 +3917,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="45" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="4:13">
@@ -3912,15 +3936,15 @@
         <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="46" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="4:13">
@@ -3928,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F18" s="15">
         <v>6</v>
@@ -3937,19 +3961,19 @@
         <v>4</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K18" s="11">
         <v>3</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M18" s="46" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="4:13">
@@ -3957,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -3967,10 +3991,10 @@
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M19" s="46" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="4:9">
@@ -3978,7 +4002,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F20" s="15">
         <v>8</v>
@@ -3987,10 +4011,10 @@
         <v>8</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="4:9">
@@ -3998,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4010,7 +4034,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F22" s="16">
         <v>10</v>
@@ -4019,10 +4043,10 @@
         <v>10</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="4:9">
@@ -4049,16 +4073,16 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="K25" s="47" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L25" s="48" t="s">
         <v>93</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" ht="32.25" spans="4:14">
@@ -4069,20 +4093,20 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="K26" s="49" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L26" s="50" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="M26" s="50"/>
       <c r="N26" s="50" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="4:14">
       <c r="D27" s="11"/>
       <c r="E27" s="16" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -4092,17 +4116,17 @@
         <v>92</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M27" s="50"/>
       <c r="N27" s="50" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="23"/>
       <c r="E28" s="16" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -4112,45 +4136,45 @@
     <row r="37" ht="14.25"/>
     <row r="38" ht="16.5" spans="4:10">
       <c r="D38" s="24" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="4:10">
       <c r="D39" s="27" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J39" s="12">
         <v>2</v>
@@ -4160,14 +4184,14 @@
       <c r="D40" s="30"/>
       <c r="E40" s="31"/>
       <c r="F40" s="29" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="G40" s="31"/>
       <c r="H40" s="11">
         <v>2</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J40" s="12">
         <v>2</v>
@@ -4177,7 +4201,7 @@
       <c r="D41" s="30"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="G41" s="31"/>
     </row>
@@ -4185,7 +4209,7 @@
       <c r="D42" s="30"/>
       <c r="E42" s="31"/>
       <c r="F42" s="33" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="G42" s="31"/>
     </row>
@@ -4193,7 +4217,7 @@
       <c r="D43" s="30"/>
       <c r="E43" s="31"/>
       <c r="F43" s="33" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G43" s="31"/>
     </row>
@@ -4201,7 +4225,7 @@
       <c r="D44" s="30"/>
       <c r="E44" s="31"/>
       <c r="F44" s="33" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G44" s="31"/>
     </row>
@@ -4209,7 +4233,7 @@
       <c r="D45" s="30"/>
       <c r="E45" s="31"/>
       <c r="F45" s="33" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G45" s="31"/>
     </row>
@@ -4217,7 +4241,7 @@
       <c r="D46" s="30"/>
       <c r="E46" s="31"/>
       <c r="F46" s="33" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G46" s="31"/>
     </row>
@@ -4225,7 +4249,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="31"/>
       <c r="F47" s="33" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G47" s="31"/>
     </row>
@@ -4233,7 +4257,7 @@
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
       <c r="F48" s="33" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G48" s="31"/>
     </row>
@@ -4241,7 +4265,7 @@
       <c r="D49" s="30"/>
       <c r="E49" s="31"/>
       <c r="F49" s="33" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G49" s="31"/>
     </row>
@@ -4249,7 +4273,7 @@
       <c r="D50" s="30"/>
       <c r="E50" s="31"/>
       <c r="F50" s="33" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G50" s="31"/>
     </row>
@@ -4257,7 +4281,7 @@
       <c r="D51" s="30"/>
       <c r="E51" s="31"/>
       <c r="F51" s="33" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G51" s="31"/>
     </row>
@@ -4265,23 +4289,23 @@
       <c r="D52" s="34"/>
       <c r="E52" s="35"/>
       <c r="F52" s="36" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G52" s="35"/>
     </row>
     <row r="53" ht="21" spans="4:4">
       <c r="D53" s="37" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" ht="15.75" spans="4:4">
       <c r="D54" s="38" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" ht="15.75" spans="4:4">
       <c r="D55" s="39" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5077,10 +5101,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5637,6 +5661,110 @@
         <v>161</v>
       </c>
       <c r="E36" s="97"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:5">
+      <c r="A37" s="96">
+        <v>637</v>
+      </c>
+      <c r="B37" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="94"/>
+      <c r="E37" s="97"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:5">
+      <c r="A38" s="96">
+        <v>638</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="94"/>
+      <c r="E38" s="97"/>
+    </row>
+    <row r="39" ht="18.75" spans="1:5">
+      <c r="A39" s="96">
+        <v>639</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="94"/>
+      <c r="E39" s="97"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:5">
+      <c r="A40" s="96">
+        <v>640</v>
+      </c>
+      <c r="B40" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="97"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:5">
+      <c r="A41" s="96">
+        <v>641</v>
+      </c>
+      <c r="B41" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="97"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:5">
+      <c r="A42" s="96">
+        <v>642</v>
+      </c>
+      <c r="B42" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="97"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:5">
+      <c r="A43" s="96">
+        <v>643</v>
+      </c>
+      <c r="B43" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="94"/>
+      <c r="E43" s="97"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:5">
+      <c r="A44" s="96">
+        <v>644</v>
+      </c>
+      <c r="B44" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="94"/>
+      <c r="E44" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5664,7 +5792,7 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="92" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>104</v>
@@ -5676,7 +5804,7 @@
         <v>107</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:5">
@@ -5684,16 +5812,16 @@
         <v>701</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C2" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D2" s="94" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:5">
@@ -5701,13 +5829,13 @@
         <v>702</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C3" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E3" s="95">
         <v>0</v>
@@ -5718,13 +5846,13 @@
         <v>703</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E4" s="95">
         <v>1</v>
@@ -5735,13 +5863,13 @@
         <v>704</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="94" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E5" s="95">
         <v>1998</v>
@@ -5752,13 +5880,13 @@
         <v>705</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="94" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E6" s="95">
         <v>2</v>
@@ -5769,13 +5897,13 @@
         <v>706</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C7" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E7" s="95">
         <v>9</v>
@@ -5786,13 +5914,13 @@
         <v>707</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C8" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E8" s="95">
         <v>120</v>
@@ -5803,13 +5931,13 @@
         <v>708</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E9" s="95">
         <v>2</v>
@@ -5820,13 +5948,13 @@
         <v>709</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C10" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E10" s="95">
         <v>4</v>
@@ -5837,16 +5965,16 @@
         <v>710</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C11" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:5">
@@ -5854,13 +5982,13 @@
         <v>711</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C12" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E12" s="95">
         <v>8000</v>
@@ -5871,16 +5999,16 @@
         <v>712</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C13" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="94" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:5">
@@ -5888,16 +6016,16 @@
         <v>713</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C14" s="94" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E14" s="95" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5911,7 +6039,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
@@ -5926,10 +6054,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="86" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C1" s="87" t="s">
         <v>107</v>
@@ -5940,32 +6068,32 @@
         <v>45</v>
       </c>
       <c r="B2" s="88" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="88" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5999,30 +6127,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="78" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F1" s="79" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A2" s="80" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -6034,16 +6162,16 @@
     <row r="3" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A3" s="81"/>
       <c r="B3" s="81" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F3" s="83">
         <v>100</v>
@@ -6053,16 +6181,16 @@
     <row r="4" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A4" s="81"/>
       <c r="B4" s="81" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D4" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F4" s="83">
         <v>162</v>
@@ -6072,22 +6200,22 @@
     <row r="5" s="76" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="81"/>
       <c r="B5" s="81" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F5" s="83">
         <v>164</v>
       </c>
       <c r="G5" s="84" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" s="76" customFormat="1" ht="18.75" spans="1:7">
@@ -6104,16 +6232,16 @@
     <row r="7" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A7" s="81"/>
       <c r="B7" s="81" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F7" s="83">
         <v>176</v>
@@ -6123,16 +6251,16 @@
     <row r="8" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A8" s="81"/>
       <c r="B8" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>211</v>
-      </c>
       <c r="D8" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F8" s="83">
         <v>178</v>
@@ -6142,16 +6270,16 @@
     <row r="9" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A9" s="81"/>
       <c r="B9" s="81" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F9" s="83">
         <v>174</v>
@@ -6161,48 +6289,48 @@
     <row r="10" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A10" s="81"/>
       <c r="B10" s="81" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F10" s="83">
         <v>170</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A11" s="81"/>
       <c r="B11" s="81" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F11" s="83">
         <v>172</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A12" s="80" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
@@ -6214,16 +6342,16 @@
     <row r="13" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A13" s="81"/>
       <c r="B13" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="82" t="s">
         <v>230</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>222</v>
       </c>
       <c r="F13" s="83">
         <v>96</v>
@@ -6232,7 +6360,7 @@
     </row>
     <row r="14" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A14" s="80" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
@@ -6244,16 +6372,16 @@
     <row r="15" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A15" s="81"/>
       <c r="B15" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="81" t="s">
-        <v>224</v>
-      </c>
       <c r="D15" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F15" s="83">
         <v>4</v>
@@ -6262,7 +6390,7 @@
     </row>
     <row r="16" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A16" s="80" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
@@ -6274,27 +6402,27 @@
     <row r="17" s="76" customFormat="1" ht="27" spans="1:7">
       <c r="A17" s="81"/>
       <c r="B17" s="81" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F17" s="83">
         <v>0.1</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A18" s="80" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
@@ -6309,24 +6437,24 @@
         <v>44</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F19" s="83">
         <v>2</v>
       </c>
       <c r="G19" s="84" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A20" s="80" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81"/>
@@ -6338,7 +6466,7 @@
     <row r="21" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A21" s="81"/>
       <c r="B21" s="85" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
@@ -6348,7 +6476,7 @@
     </row>
     <row r="22" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A22" s="80" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B22" s="81"/>
       <c r="C22" s="81"/>
@@ -6360,16 +6488,16 @@
     <row r="23" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A23" s="81"/>
       <c r="B23" s="81" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F23" s="83">
         <v>92.1</v>
@@ -6379,16 +6507,16 @@
     <row r="24" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A24" s="81"/>
       <c r="B24" s="81" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F24" s="83">
         <v>190</v>
@@ -6398,16 +6526,16 @@
     <row r="25" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A25" s="81"/>
       <c r="B25" s="81" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F25" s="83">
         <v>274</v>
@@ -6417,16 +6545,16 @@
     <row r="26" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A26" s="81"/>
       <c r="B26" s="81" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F26" s="83">
         <v>2976</v>
@@ -6436,48 +6564,48 @@
     <row r="27" s="76" customFormat="1" ht="54" spans="1:7">
       <c r="A27" s="81"/>
       <c r="B27" s="81" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F27" s="83">
         <v>272</v>
       </c>
       <c r="G27" s="84" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A28" s="81"/>
       <c r="B28" s="81" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F28" s="83">
         <v>166.1</v>
       </c>
       <c r="G28" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A29" s="80" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
@@ -6489,16 +6617,16 @@
     <row r="30" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A30" s="81"/>
       <c r="B30" s="81" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F30" s="83">
         <v>92.2</v>
@@ -6508,16 +6636,16 @@
     <row r="31" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A31" s="81"/>
       <c r="B31" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="82" t="s">
         <v>252</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>244</v>
       </c>
       <c r="F31" s="83">
         <v>2812</v>
@@ -6527,16 +6655,16 @@
     <row r="32" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A32" s="81"/>
       <c r="B32" s="81" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F32" s="83">
         <v>2898</v>
@@ -6546,16 +6674,16 @@
     <row r="33" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A33" s="81"/>
       <c r="B33" s="81" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F33" s="83">
         <v>2980</v>
@@ -6565,27 +6693,27 @@
     <row r="34" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A34" s="81"/>
       <c r="B34" s="81" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F34" s="83">
         <v>166.2</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A35" s="80" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B35" s="81"/>
       <c r="C35" s="81"/>
@@ -6597,16 +6725,16 @@
     <row r="36" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A36" s="81"/>
       <c r="B36" s="81" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D36" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F36" s="83">
         <v>92.3</v>
@@ -6616,16 +6744,16 @@
     <row r="37" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A37" s="81"/>
       <c r="B37" s="81" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D37" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F37" s="83">
         <v>5518</v>
@@ -6635,16 +6763,16 @@
     <row r="38" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A38" s="81"/>
       <c r="B38" s="81" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F38" s="83">
         <v>5604</v>
@@ -6654,16 +6782,16 @@
     <row r="39" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A39" s="81"/>
       <c r="B39" s="81" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D39" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E39" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F39" s="83">
         <v>5686</v>
@@ -6673,27 +6801,27 @@
     <row r="40" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A40" s="81"/>
       <c r="B40" s="81" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D40" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F40" s="83">
         <v>166.3</v>
       </c>
       <c r="G40" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A41" s="80" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B41" s="81"/>
       <c r="C41" s="81"/>
@@ -6705,16 +6833,16 @@
     <row r="42" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A42" s="81"/>
       <c r="B42" s="81" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D42" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E42" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F42" s="83">
         <v>94.1</v>
@@ -6724,16 +6852,16 @@
     <row r="43" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A43" s="81"/>
       <c r="B43" s="81" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E43" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F43" s="83">
         <v>8542</v>
@@ -6743,16 +6871,16 @@
     <row r="44" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A44" s="81"/>
       <c r="B44" s="81" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F44" s="83">
         <v>8632</v>
@@ -6762,16 +6890,16 @@
     <row r="45" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A45" s="81"/>
       <c r="B45" s="81" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D45" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F45" s="83">
         <v>8550</v>
@@ -6781,16 +6909,16 @@
     <row r="46" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A46" s="81"/>
       <c r="B46" s="81" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D46" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F46" s="83">
         <v>8544</v>
@@ -6800,27 +6928,27 @@
     <row r="47" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A47" s="81"/>
       <c r="B47" s="81" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D47" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F47" s="83">
         <v>168.1</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A48" s="80" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B48" s="81"/>
       <c r="C48" s="81"/>
@@ -6832,16 +6960,16 @@
     <row r="49" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A49" s="81"/>
       <c r="B49" s="81" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D49" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E49" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F49" s="83">
         <v>94.2</v>
@@ -6851,16 +6979,16 @@
     <row r="50" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A50" s="81"/>
       <c r="B50" s="81" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F50" s="83">
         <v>8976</v>
@@ -6870,16 +6998,16 @@
     <row r="51" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A51" s="81"/>
       <c r="B51" s="81" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D51" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F51" s="83">
         <v>9066</v>
@@ -6889,16 +7017,16 @@
     <row r="52" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A52" s="81"/>
       <c r="B52" s="81" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D52" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F52" s="83">
         <v>8984</v>
@@ -6908,16 +7036,16 @@
     <row r="53" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A53" s="81"/>
       <c r="B53" s="81" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D53" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E53" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F53" s="83">
         <v>8978</v>
@@ -6927,27 +7055,27 @@
     <row r="54" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A54" s="81"/>
       <c r="B54" s="81" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C54" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D54" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F54" s="83">
         <v>168.2</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A55" s="80" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B55" s="81"/>
       <c r="C55" s="81"/>
@@ -6959,16 +7087,16 @@
     <row r="56" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A56" s="81"/>
       <c r="B56" s="81" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C56" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D56" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F56" s="83">
         <v>94.3</v>
@@ -6978,16 +7106,16 @@
     <row r="57" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A57" s="81"/>
       <c r="B57" s="81" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C57" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E57" s="82" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F57" s="83">
         <v>9410</v>
@@ -6997,16 +7125,16 @@
     <row r="58" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A58" s="81"/>
       <c r="B58" s="81" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D58" s="81" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E58" s="82" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F58" s="83">
         <v>9500</v>
@@ -7016,22 +7144,22 @@
     <row r="59" s="76" customFormat="1" ht="18.75" spans="1:7">
       <c r="A59" s="81"/>
       <c r="B59" s="81" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C59" s="81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D59" s="81" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F59" s="83">
         <v>168.3</v>
       </c>
       <c r="G59" s="83" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7061,41 +7189,41 @@
   <sheetData>
     <row r="1" ht="21" spans="1:5">
       <c r="A1" s="74" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" ht="21" spans="1:5">
       <c r="A2" s="74" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" ht="21" spans="1:5">
       <c r="A3" s="74" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
@@ -7112,44 +7240,44 @@
     </row>
     <row r="4" ht="21" spans="1:6">
       <c r="A4" s="74" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E4" s="75" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" ht="21" spans="1:5">
       <c r="A5" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>278</v>
-      </c>
       <c r="C5" s="14" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="21" spans="1:5">
       <c r="A6" s="74" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -7166,22 +7294,22 @@
     </row>
     <row r="7" ht="21" spans="1:5">
       <c r="A7" s="74" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="75" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:5">
       <c r="A8" s="74" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -7198,7 +7326,7 @@
     </row>
     <row r="9" ht="21" spans="1:5">
       <c r="A9" s="74" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
